--- a/01_kidsweb/home/kids2/report_tmp/slip_comm.xlsx
+++ b/01_kidsweb/home/kids2/report_tmp/slip_comm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBC0858-7616-49BC-8BBF-F0B2C0E4B06D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABCD29B-B7DB-4016-838D-5C7334386013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="19416" windowHeight="15132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="市販" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1376,15 +1377,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1437,6 +1435,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1444,9 +1445,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1457,6 +1455,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1833,7 +1840,7 @@
   <dimension ref="A2:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1858,530 +1865,530 @@
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
     </row>
     <row r="4" spans="3:14" ht="60.45" customHeight="1">
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
     </row>
     <row r="5" spans="3:14" ht="27.45" customHeight="1">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="7" t="s">
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="3:14" ht="19.8" customHeight="1">
-      <c r="C6" s="41" t="str">
+      <c r="C6" s="37" t="str">
         <f>データ設定用!K6</f>
         <v>製品名1</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="45">
         <f>データ設定用!O6</f>
         <v>123456</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="45">
         <f>データ設定用!M6</f>
         <v>123</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="45">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R6/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R6/10000000,0),10),"")</f>
         <v>1</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="45">
         <f>IF(OR(MAX($F6:F7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/1000000,0),10),"")</f>
         <v>5</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="45">
         <f>IF(OR(MAX($F6:G7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/100000,0),10),"")</f>
         <v>1</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="45">
         <f>IF(OR(MAX($F6:H7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/10000,0),10),"")</f>
         <v>8</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="45">
         <f>IF(OR(MAX($F6:I7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/1000,0),10),"")</f>
         <v>5</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="45">
         <f>IF(OR(MAX($F6:J7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/100,0),10),"")</f>
         <v>0</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="45">
         <f>IF(OR(MAX($F6:K7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/10,0),10),"")</f>
         <v>8</v>
       </c>
-      <c r="M6" s="41">
+      <c r="M6" s="45">
         <f>MOD(データ設定用!$R6,10)</f>
         <v>8</v>
       </c>
-      <c r="N6" s="8" t="str">
+      <c r="N6" s="7" t="str">
         <f>データ設定用!S6</f>
         <v>備考1</v>
       </c>
     </row>
     <row r="7" spans="3:14" ht="19.8" customHeight="1">
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="32" t="str">
+      <c r="C7" s="37"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="31" t="str">
         <f>データ設定用!I6</f>
         <v>00001</v>
       </c>
     </row>
     <row r="8" spans="3:14" ht="19.8" customHeight="1">
-      <c r="C8" s="41">
+      <c r="C8" s="37">
         <f>データ設定用!K7</f>
         <v>0</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="45">
         <f>データ設定用!O7</f>
         <v>0</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="45">
         <f>データ設定用!M7</f>
         <v>0</v>
       </c>
-      <c r="F8" s="41" t="str">
+      <c r="F8" s="45" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R7/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R7/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G8" s="41" t="str">
+      <c r="G8" s="45" t="str">
         <f>IF(OR(MAX($F8:F9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H8" s="41" t="str">
+      <c r="H8" s="45" t="str">
         <f>IF(OR(MAX($F8:G9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I8" s="41" t="str">
+      <c r="I8" s="45" t="str">
         <f>IF(OR(MAX($F8:H9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J8" s="41" t="str">
+      <c r="J8" s="45" t="str">
         <f>IF(OR(MAX($F8:I9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K8" s="41" t="str">
+      <c r="K8" s="45" t="str">
         <f>IF(OR(MAX($F8:J9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L8" s="41" t="str">
+      <c r="L8" s="45" t="str">
         <f>IF(OR(MAX($F8:K9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M8" s="41">
+      <c r="M8" s="45">
         <f>MOD(データ設定用!$R7,10)</f>
         <v>0</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <f>データ設定用!S7</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="3:14" ht="19.8" customHeight="1">
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="32">
+      <c r="C9" s="37"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="31">
         <f>データ設定用!I7</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="3:14" ht="19.8" customHeight="1">
-      <c r="C10" s="41">
+      <c r="C10" s="37">
         <f>データ設定用!K8</f>
         <v>0</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="45">
         <f>データ設定用!O8</f>
         <v>0</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="45">
         <f>データ設定用!M8</f>
         <v>0</v>
       </c>
-      <c r="F10" s="41" t="str">
+      <c r="F10" s="45" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R8/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R8/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G10" s="41" t="str">
+      <c r="G10" s="45" t="str">
         <f>IF(OR(MAX($F10:F11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H10" s="41" t="str">
+      <c r="H10" s="45" t="str">
         <f>IF(OR(MAX($F10:G11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I10" s="41" t="str">
+      <c r="I10" s="45" t="str">
         <f>IF(OR(MAX($F10:H11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J10" s="41" t="str">
+      <c r="J10" s="45" t="str">
         <f>IF(OR(MAX($F10:I11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K10" s="41" t="str">
+      <c r="K10" s="45" t="str">
         <f>IF(OR(MAX($F10:J11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L10" s="41" t="str">
+      <c r="L10" s="45" t="str">
         <f>IF(OR(MAX($F10:K11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M10" s="41">
+      <c r="M10" s="45">
         <f>MOD(データ設定用!$R8,10)</f>
         <v>0</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <f>データ設定用!S8</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="3:14" ht="19.8" customHeight="1">
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="32">
+      <c r="C11" s="37"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="31">
         <f>データ設定用!I8</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="3:14" ht="19.8" customHeight="1">
-      <c r="C12" s="41">
+      <c r="C12" s="37">
         <f>データ設定用!K9</f>
         <v>0</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="45">
         <f>データ設定用!O9</f>
         <v>0</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="45">
         <f>データ設定用!M9</f>
         <v>0</v>
       </c>
-      <c r="F12" s="41" t="str">
+      <c r="F12" s="45" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R9/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R9/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G12" s="41" t="str">
+      <c r="G12" s="45" t="str">
         <f>IF(OR(MAX($F12:F13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H12" s="41" t="str">
+      <c r="H12" s="45" t="str">
         <f>IF(OR(MAX($F12:G13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I12" s="41" t="str">
+      <c r="I12" s="45" t="str">
         <f>IF(OR(MAX($F12:H13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J12" s="41" t="str">
+      <c r="J12" s="45" t="str">
         <f>IF(OR(MAX($F12:I13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K12" s="41" t="str">
+      <c r="K12" s="45" t="str">
         <f>IF(OR(MAX($F12:J13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L12" s="41" t="str">
+      <c r="L12" s="45" t="str">
         <f>IF(OR(MAX($F12:K13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M12" s="41">
+      <c r="M12" s="45">
         <f>MOD(データ設定用!$R9,10)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
         <f>データ設定用!S9</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="3:14" ht="19.8" customHeight="1">
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="32">
+      <c r="C13" s="37"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="31">
         <f>データ設定用!I9</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="3:14" ht="19.8" customHeight="1">
-      <c r="C14" s="41">
+      <c r="C14" s="37">
         <f>データ設定用!K10</f>
         <v>0</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="45">
         <f>データ設定用!O10</f>
         <v>0</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="45">
         <f>データ設定用!M10</f>
         <v>0</v>
       </c>
-      <c r="F14" s="41" t="str">
+      <c r="F14" s="45" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R10/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R10/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G14" s="41" t="str">
+      <c r="G14" s="45" t="str">
         <f>IF(OR(MAX($F14:F15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H14" s="41" t="str">
+      <c r="H14" s="45" t="str">
         <f>IF(OR(MAX($F14:G15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I14" s="41" t="str">
+      <c r="I14" s="45" t="str">
         <f>IF(OR(MAX($F14:H15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J14" s="41" t="str">
+      <c r="J14" s="45" t="str">
         <f>IF(OR(MAX($F14:I15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K14" s="41" t="str">
+      <c r="K14" s="45" t="str">
         <f>IF(OR(MAX($F14:J15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L14" s="41" t="str">
+      <c r="L14" s="45" t="str">
         <f>IF(OR(MAX($F14:K15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M14" s="41">
+      <c r="M14" s="45">
         <f>MOD(データ設定用!$R10,10)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="7">
         <f>データ設定用!S10</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="3:14" ht="19.8" customHeight="1">
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="32">
+      <c r="C15" s="37"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+      <c r="N15" s="31">
         <f>データ設定用!I10</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="3:14" ht="19.8" customHeight="1">
-      <c r="C16" s="41">
+      <c r="C16" s="37">
         <f>データ設定用!K11</f>
         <v>0</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="45">
         <f>データ設定用!O11</f>
         <v>0</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="45">
         <f>データ設定用!M11</f>
         <v>0</v>
       </c>
-      <c r="F16" s="41" t="str">
+      <c r="F16" s="45" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R11/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R11/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G16" s="41" t="str">
+      <c r="G16" s="45" t="str">
         <f>IF(OR(MAX($F16:F17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H16" s="41" t="str">
+      <c r="H16" s="45" t="str">
         <f>IF(OR(MAX($F16:G17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I16" s="41" t="str">
+      <c r="I16" s="45" t="str">
         <f>IF(OR(MAX($F16:H17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J16" s="41" t="str">
+      <c r="J16" s="45" t="str">
         <f>IF(OR(MAX($F16:I17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K16" s="41" t="str">
+      <c r="K16" s="45" t="str">
         <f>IF(OR(MAX($F16:J17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L16" s="41" t="str">
+      <c r="L16" s="45" t="str">
         <f>IF(OR(MAX($F16:K17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M16" s="41">
+      <c r="M16" s="45">
         <f>MOD(データ設定用!$R11,10)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="7">
         <f>データ設定用!S11</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:14" ht="19.8" customHeight="1">
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="32">
+      <c r="C17" s="37"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="31">
         <f>データ設定用!I11</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="19.8" customHeight="1">
-      <c r="C18" s="41">
+      <c r="C18" s="37">
         <f>データ設定用!K12</f>
         <v>0</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="45">
         <f>データ設定用!O12</f>
         <v>0</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="45">
         <f>データ設定用!M12</f>
         <v>0</v>
       </c>
-      <c r="F18" s="41" t="str">
+      <c r="F18" s="45" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R12/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R12/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G18" s="41" t="str">
+      <c r="G18" s="45" t="str">
         <f>IF(OR(MAX($F18:F19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H18" s="41" t="str">
+      <c r="H18" s="45" t="str">
         <f>IF(OR(MAX($F18:G19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I18" s="41" t="str">
+      <c r="I18" s="45" t="str">
         <f>IF(OR(MAX($F18:H19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="J18" s="41" t="str">
+      <c r="J18" s="45" t="str">
         <f>IF(OR(MAX($F18:I19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="K18" s="41" t="str">
+      <c r="K18" s="45" t="str">
         <f>IF(OR(MAX($F18:J19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="L18" s="41" t="str">
+      <c r="L18" s="45" t="str">
         <f>IF(OR(MAX($F18:K19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="M18" s="41">
+      <c r="M18" s="45">
         <f>MOD(データ設定用!$R12,10)</f>
         <v>0</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
         <f>データ設定用!S12</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="19.8" customHeight="1">
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="32">
+      <c r="C19" s="37"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="31">
         <f>データ設定用!I12</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="39" customHeight="1">
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="5"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="3">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$V$3/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$V$3/10000000,0),10),"")</f>
         <v>1</v>
@@ -2474,31 +2481,59 @@
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
       <c r="M22" s="38"/>
-      <c r="N22" s="29">
+      <c r="N22" s="28">
         <f>データ設定用!D3</f>
         <v>11111111</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="F5:M5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
@@ -2515,52 +2550,24 @@
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -2591,365 +2598,365 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.45" customHeight="1">
-      <c r="B2" s="42" t="str">
+      <c r="B2" s="41" t="str">
         <f>CONCATENATE(データ設定用!H3,"　",データ設定用!O3,"様")</f>
         <v>△△株式会社　顧客担当者様</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="B3" s="42" t="str">
+      <c r="B3" s="41" t="str">
         <f>CONCATENATE(データ設定用!R3,"　",データ設定用!S3,"様")</f>
         <v>ロジパルお台場　ご担当者様</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:11" ht="9" customHeight="1">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:11" ht="30.45" customHeight="1" thickBot="1">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="43" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="20.55" customHeight="1">
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="7.5" customHeight="1">
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="25.95" customHeight="1" thickBot="1">
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="43">
         <v>43712</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" spans="1:11" ht="10.95" customHeight="1">
-      <c r="D10" s="14"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="16"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="33.450000000000003" customHeight="1">
-      <c r="A12" s="17">
+      <c r="A12" s="16">
         <v>1</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="33">
         <f>データ設定用!E6</f>
         <v>10000001</v>
       </c>
-      <c r="C12" s="22" t="str">
+      <c r="C12" s="21" t="str">
         <f>データ設定用!H6</f>
         <v>A00001</v>
       </c>
-      <c r="D12" s="22" t="str">
+      <c r="D12" s="21" t="str">
         <f>データ設定用!K6</f>
         <v>製品名1</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="21">
         <f>データ設定用!O6</f>
         <v>123456</v>
       </c>
-      <c r="F12" s="22" t="str">
+      <c r="F12" s="21" t="str">
         <f>データ設定用!Q6</f>
         <v>pcs</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="35" t="str">
+      <c r="G12" s="21"/>
+      <c r="H12" s="34" t="str">
         <f>CONCATENATE(データ設定用!S6,CHAR(10),データ設定用!$Z$3)</f>
         <v>備考1
 外税</v>
       </c>
-      <c r="I12" s="23" t="str">
+      <c r="I12" s="22" t="str">
         <f>データ設定用!$R$3</f>
         <v>ロジパルお台場</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="16"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="33.450000000000003" customHeight="1">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>2</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="33">
         <f>データ設定用!E7</f>
         <v>0</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <f>データ設定用!H7</f>
         <v>0</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <f>データ設定用!K7</f>
         <v>0</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="21">
         <f>データ設定用!O7</f>
         <v>0</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="21">
         <f>データ設定用!Q7</f>
         <v>0</v>
       </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="35" t="str">
+      <c r="G13" s="21"/>
+      <c r="H13" s="34" t="str">
         <f>CONCATENATE(データ設定用!S7,CHAR(10),データ設定用!$Z$3)</f>
         <v xml:space="preserve">
 外税</v>
       </c>
-      <c r="I13" s="23" t="str">
+      <c r="I13" s="22" t="str">
         <f>データ設定用!$R$3</f>
         <v>ロジパルお台場</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="16"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="15"/>
     </row>
     <row r="14" spans="1:11" ht="33.450000000000003" customHeight="1">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>3</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="33">
         <f>データ設定用!E8</f>
         <v>0</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="21">
         <f>データ設定用!H8</f>
         <v>0</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <f>データ設定用!K8</f>
         <v>0</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="21">
         <f>データ設定用!O8</f>
         <v>0</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="21">
         <f>データ設定用!Q8</f>
         <v>0</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="35" t="str">
+      <c r="G14" s="21"/>
+      <c r="H14" s="34" t="str">
         <f>CONCATENATE(データ設定用!S8,CHAR(10),データ設定用!$Z$3)</f>
         <v xml:space="preserve">
 外税</v>
       </c>
-      <c r="I14" s="23" t="str">
+      <c r="I14" s="22" t="str">
         <f>データ設定用!$R$3</f>
         <v>ロジパルお台場</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="16"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="15"/>
     </row>
     <row r="15" spans="1:11" ht="33.450000000000003" customHeight="1">
-      <c r="A15" s="17">
+      <c r="A15" s="16">
         <v>4</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="33">
         <f>データ設定用!E9</f>
         <v>0</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <f>データ設定用!H9</f>
         <v>0</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <f>データ設定用!K9</f>
         <v>0</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="21">
         <f>データ設定用!O9</f>
         <v>0</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="21">
         <f>データ設定用!Q9</f>
         <v>0</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="35" t="str">
+      <c r="G15" s="21"/>
+      <c r="H15" s="34" t="str">
         <f>CONCATENATE(データ設定用!S9,CHAR(10),データ設定用!$Z$3)</f>
         <v xml:space="preserve">
 外税</v>
       </c>
-      <c r="I15" s="23" t="str">
+      <c r="I15" s="22" t="str">
         <f>データ設定用!$R$3</f>
         <v>ロジパルお台場</v>
       </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="16"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="15"/>
     </row>
     <row r="16" spans="1:11" ht="33.450000000000003" customHeight="1">
-      <c r="A16" s="17">
+      <c r="A16" s="16">
         <v>5</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="33">
         <f>データ設定用!E10</f>
         <v>0</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <f>データ設定用!H10</f>
         <v>0</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <f>データ設定用!K10</f>
         <v>0</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="21">
         <f>データ設定用!O10</f>
         <v>0</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="21">
         <f>データ設定用!Q10</f>
         <v>0</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="35" t="str">
+      <c r="G16" s="21"/>
+      <c r="H16" s="34" t="str">
         <f>CONCATENATE(データ設定用!S10,CHAR(10),データ設定用!$Z$3)</f>
         <v xml:space="preserve">
 外税</v>
       </c>
-      <c r="I16" s="23" t="str">
+      <c r="I16" s="22" t="str">
         <f>データ設定用!$R$3</f>
         <v>ロジパルお台場</v>
       </c>
-      <c r="J16" s="21"/>
-      <c r="K16" s="16"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" ht="33.450000000000003" customHeight="1">
-      <c r="A17" s="17">
+      <c r="A17" s="16">
         <v>6</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="33">
         <f>データ設定用!E11</f>
         <v>0</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="21">
         <f>データ設定用!H11</f>
         <v>0</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <f>データ設定用!K11</f>
         <v>0</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="21">
         <f>データ設定用!O11</f>
         <v>0</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="21">
         <f>データ設定用!Q11</f>
         <v>0</v>
       </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="35" t="str">
+      <c r="G17" s="21"/>
+      <c r="H17" s="34" t="str">
         <f>CONCATENATE(データ設定用!S11,CHAR(10),データ設定用!$Z$3)</f>
         <v xml:space="preserve">
 外税</v>
       </c>
-      <c r="I17" s="23" t="str">
+      <c r="I17" s="22" t="str">
         <f>データ設定用!$R$3</f>
         <v>ロジパルお台場</v>
       </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="16"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="15"/>
     </row>
     <row r="18" spans="1:11" ht="13.95" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
     </row>
     <row r="19" spans="1:11" ht="27" customHeight="1">
-      <c r="G19" s="45" t="s">
+      <c r="G19" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="25" t="s">
+      <c r="H19" s="44"/>
+      <c r="I19" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="25" t="s">
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
-      <c r="G21" s="26"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="25" t="s">
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
-      <c r="G22" s="26"/>
-      <c r="H22" s="27" t="s">
+      <c r="G22" s="25"/>
+      <c r="H22" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I22" s="24" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3004,7 +3011,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
-      <c r="A1" s="28"/>
+      <c r="A1" s="27"/>
       <c r="B1" t="s">
         <v>26</v>
       </c>
@@ -3026,22 +3033,22 @@
       <c r="H1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="35" t="s">
         <v>132</v>
       </c>
       <c r="O1" t="s">
@@ -3095,7 +3102,7 @@
       <c r="AE1" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" s="36" t="s">
+      <c r="AF1" s="35" t="s">
         <v>147</v>
       </c>
       <c r="AI1" t="s">
@@ -3130,22 +3137,22 @@
       <c r="H2" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="36" t="s">
         <v>141</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="M2" s="36" t="s">
+      <c r="M2" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="35" t="s">
         <v>134</v>
       </c>
       <c r="O2" t="s">
@@ -3199,50 +3206,50 @@
       <c r="AE2" t="s">
         <v>65</v>
       </c>
-      <c r="AF2" s="36" t="s">
+      <c r="AF2" s="35" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:37">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="28">
         <v>11111111</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="K3" s="36" t="s">
+      <c r="K3" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="L3" s="36" t="s">
+      <c r="L3" s="35" t="s">
         <v>146</v>
       </c>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="28" t="s">
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="30">
+      <c r="P3" s="29">
         <v>43719</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="S3" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="U3" s="28" t="s">
+      <c r="U3" s="27" t="s">
         <v>70</v>
       </c>
       <c r="V3">
@@ -3251,16 +3258,16 @@
       <c r="Y3">
         <v>1</v>
       </c>
-      <c r="Z3" s="28" t="s">
+      <c r="Z3" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="AA3" s="28">
+      <c r="AA3" s="27">
         <v>0.08</v>
       </c>
-      <c r="AE3" s="28" t="s">
+      <c r="AE3" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="AF3" s="31" t="s">
+      <c r="AF3" s="30" t="s">
         <v>126</v>
       </c>
       <c r="AI3">
@@ -3388,25 +3395,25 @@
       </c>
     </row>
     <row r="6" spans="1:37">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="28">
         <v>10000001</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="27" t="s">
         <v>110</v>
       </c>
       <c r="M6">
@@ -3418,94 +3425,94 @@
       <c r="O6">
         <v>123456</v>
       </c>
-      <c r="Q6" s="28" t="s">
+      <c r="Q6" s="27" t="s">
         <v>111</v>
       </c>
       <c r="R6">
         <f t="shared" ref="R6" si="0">M6*O6</f>
         <v>15185088</v>
       </c>
-      <c r="S6" s="28" t="s">
+      <c r="S6" s="27" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:37">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="S7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="S7" s="27"/>
     </row>
     <row r="8" spans="1:37">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="E8" s="29"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="S8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="S8" s="27"/>
     </row>
     <row r="9" spans="1:37">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="S9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="S9" s="27"/>
     </row>
     <row r="10" spans="1:37">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="S10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="S10" s="27"/>
     </row>
     <row r="11" spans="1:37">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="S11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="S11" s="27"/>
     </row>
     <row r="12" spans="1:37">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="S12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="S12" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/01_kidsweb/home/kids2/report_tmp/slip_comm.xlsx
+++ b/01_kidsweb/home/kids2/report_tmp/slip_comm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E902CED9-466C-444E-A3A3-3F5A2E283207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46265069-8DEC-4137-B638-A21BD3F13246}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="データ設定用" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">納品書!$B$1:$N$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">納品書!$A$1:$L$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">納品連絡書!$A$1:$J$23</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -1657,34 +1657,34 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:N22"/>
+  <dimension ref="A2:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B5" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9:T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="3" width="42.88671875" customWidth="1"/>
-    <col min="4" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="5.109375" customWidth="1"/>
-    <col min="7" max="12" width="3.6640625" customWidth="1"/>
-    <col min="13" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="23.44140625" customWidth="1"/>
-    <col min="15" max="15" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="42.88671875" customWidth="1"/>
+    <col min="2" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="5.109375" customWidth="1"/>
+    <col min="5" max="10" width="3.6640625" customWidth="1"/>
+    <col min="11" max="11" width="6" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" customWidth="1"/>
+    <col min="13" max="13" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:14" ht="70.2" customHeight="1"/>
-    <row r="3" spans="3:14" ht="26.7" customHeight="1">
-      <c r="C3" s="3">
-        <f>データ設定用!G3</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
+    <row r="2" spans="1:12" ht="70.2" customHeight="1"/>
+    <row r="3" spans="1:12" ht="26.7" customHeight="1">
+      <c r="A3" s="3" t="str">
+        <f>IF(データ設定用!G3="","",データ設定用!G3)</f>
+        <v/>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1693,10 +1693,10 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="3:14" ht="60.45" customHeight="1">
+    </row>
+    <row r="4" spans="1:12" ht="60.45" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1707,85 +1707,85 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="3:14" ht="27.45" customHeight="1">
+    </row>
+    <row r="5" spans="1:12" ht="27.45" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="D5" s="40" t="s">
         <v>4</v>
       </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
       <c r="I5" s="40"/>
       <c r="J5" s="40"/>
       <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:14" ht="19.95" customHeight="1">
-      <c r="C6" s="40" t="str">
+    <row r="6" spans="1:12" ht="19.95" customHeight="1">
+      <c r="A6" s="40" t="str">
         <f>IF(LEN(データ設定用!K6)&gt;0,データ設定用!K6,"")</f>
         <v/>
       </c>
+      <c r="B6" s="41" t="str">
+        <f>IF(LEN(データ設定用!O6)&gt;0,データ設定用!O6,"")</f>
+        <v/>
+      </c>
+      <c r="C6" s="41" t="str">
+        <f>IF(LEN(データ設定用!M6)&gt;0,データ設定用!M6,"")</f>
+        <v/>
+      </c>
       <c r="D6" s="41" t="str">
-        <f>IF(LEN(データ設定用!O6)&gt;0,データ設定用!O6,"")</f>
+        <f>IF(MOD(ROUNDDOWN(データ設定用!$R6/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R6/10000000,0),10),"")</f>
         <v/>
       </c>
       <c r="E6" s="41" t="str">
-        <f>IF(LEN(データ設定用!M6)&gt;0,データ設定用!M6,"")</f>
+        <f>IF(OR(MAX($D6:D7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/1000000,0),10),"")</f>
         <v/>
       </c>
       <c r="F6" s="41" t="str">
-        <f>IF(MOD(ROUNDDOWN(データ設定用!$R6/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R6/10000000,0),10),"")</f>
+        <f>IF(OR(MAX($D6:E7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/100000,0),10),"")</f>
         <v/>
       </c>
       <c r="G6" s="41" t="str">
-        <f>IF(OR(MAX($F6:F7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/1000000,0),10),"")</f>
+        <f>IF(OR(MAX($D6:F7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/10000,0),10),"")</f>
         <v/>
       </c>
       <c r="H6" s="41" t="str">
-        <f>IF(OR(MAX($F6:G7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/100000,0),10),"")</f>
+        <f>IF(OR(MAX($D6:G7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/1000,0),10),"")</f>
         <v/>
       </c>
       <c r="I6" s="41" t="str">
-        <f>IF(OR(MAX($F6:H7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/10000,0),10),"")</f>
+        <f>IF(OR(MAX($D6:H7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/100,0),10),"")</f>
         <v/>
       </c>
       <c r="J6" s="41" t="str">
-        <f>IF(OR(MAX($F6:I7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/1000,0),10),"")</f>
+        <f>IF(OR(MAX($D6:I7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/10,0),10),"")</f>
         <v/>
       </c>
       <c r="K6" s="41" t="str">
-        <f>IF(OR(MAX($F6:J7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/100,0),10),"")</f>
-        <v/>
-      </c>
-      <c r="L6" s="41" t="str">
-        <f>IF(OR(MAX($F6:K7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/10,0),10),"")</f>
-        <v/>
-      </c>
-      <c r="M6" s="41" t="str">
         <f>IF(LEN(データ設定用!$R6)&gt;0,MOD(データ設定用!$R6,10),"")</f>
         <v/>
       </c>
-      <c r="N6" s="6" t="str">
+      <c r="L6" s="6" t="str">
         <f>IF(LEN(データ設定用!S6)&gt;0,データ設定用!S6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="3:14" ht="19.95" customHeight="1">
-      <c r="C7" s="40"/>
+    <row r="7" spans="1:12" ht="19.95" customHeight="1">
+      <c r="A7" s="40"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
@@ -1794,65 +1794,65 @@
       <c r="I7" s="41"/>
       <c r="J7" s="41"/>
       <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="35" t="str">
+      <c r="L7" s="35" t="str">
         <f>IF(LEN(データ設定用!I6)&gt;0,データ設定用!I6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="3:14" ht="19.95" customHeight="1">
-      <c r="C8" s="40" t="str">
-        <f>IF(LEN(データ設定用!K8)&gt;0,データ設定用!K8,"")</f>
+    <row r="8" spans="1:12" ht="19.95" customHeight="1">
+      <c r="A8" s="40" t="str">
+        <f>IF(LEN(データ設定用!K7)&gt;0,データ設定用!K7,"")</f>
+        <v/>
+      </c>
+      <c r="B8" s="41" t="str">
+        <f>IF(LEN(データ設定用!O7)&gt;0,データ設定用!O7,"")</f>
+        <v/>
+      </c>
+      <c r="C8" s="41" t="str">
+        <f>IF(LEN(データ設定用!M7)&gt;0,データ設定用!M7,"")</f>
         <v/>
       </c>
       <c r="D8" s="41" t="str">
-        <f>IF(LEN(データ設定用!O8)&gt;0,データ設定用!O8,"")</f>
+        <f>IF(MOD(ROUNDDOWN(データ設定用!$R7/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R7/10000000,0),10),"")</f>
         <v/>
       </c>
       <c r="E8" s="41" t="str">
-        <f>IF(LEN(データ設定用!M8)&gt;0,データ設定用!M8,"")</f>
+        <f>IF(OR(MAX($D8:D9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/1000000,0),10),"")</f>
         <v/>
       </c>
       <c r="F8" s="41" t="str">
-        <f>IF(MOD(ROUNDDOWN(データ設定用!$R7/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R7/10000000,0),10),"")</f>
+        <f>IF(OR(MAX($D8:E9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/100000,0),10),"")</f>
         <v/>
       </c>
       <c r="G8" s="41" t="str">
-        <f>IF(OR(MAX($F8:F9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/1000000,0),10),"")</f>
+        <f>IF(OR(MAX($D8:F9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/10000,0),10),"")</f>
         <v/>
       </c>
       <c r="H8" s="41" t="str">
-        <f>IF(OR(MAX($F8:G9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/100000,0),10),"")</f>
+        <f>IF(OR(MAX($D8:G9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/1000,0),10),"")</f>
         <v/>
       </c>
       <c r="I8" s="41" t="str">
-        <f>IF(OR(MAX($F8:H9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/10000,0),10),"")</f>
+        <f>IF(OR(MAX($D8:H9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/100,0),10),"")</f>
         <v/>
       </c>
       <c r="J8" s="41" t="str">
-        <f>IF(OR(MAX($F8:I9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/1000,0),10),"")</f>
+        <f>IF(OR(MAX($D8:I9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/10,0),10),"")</f>
         <v/>
       </c>
       <c r="K8" s="41" t="str">
-        <f>IF(OR(MAX($F8:J9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/100,0),10),"")</f>
-        <v/>
-      </c>
-      <c r="L8" s="41" t="str">
-        <f>IF(OR(MAX($F8:K9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/10,0),10),"")</f>
-        <v/>
-      </c>
-      <c r="M8" s="41" t="str">
         <f>IF(LEN(データ設定用!$R7)&gt;0,MOD(データ設定用!$R7,10),"")</f>
         <v/>
       </c>
-      <c r="N8" s="6" t="str">
+      <c r="L8" s="6" t="str">
         <f>IF(LEN(データ設定用!S7)&gt;0,データ設定用!S7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="3:14" ht="19.95" customHeight="1">
-      <c r="C9" s="40"/>
+    <row r="9" spans="1:12" ht="19.95" customHeight="1">
+      <c r="A9" s="40"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
       <c r="F9" s="41"/>
@@ -1861,65 +1861,65 @@
       <c r="I9" s="41"/>
       <c r="J9" s="41"/>
       <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="35" t="str">
+      <c r="L9" s="35" t="str">
         <f>IF(LEN(データ設定用!I7)&gt;0,データ設定用!I7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="3:14" ht="19.95" customHeight="1">
-      <c r="C10" s="40" t="str">
-        <f>IF(LEN(データ設定用!K10)&gt;0,データ設定用!K10,"")</f>
+    <row r="10" spans="1:12" ht="19.95" customHeight="1">
+      <c r="A10" s="40" t="str">
+        <f>IF(LEN(データ設定用!K8)&gt;0,データ設定用!K8,"")</f>
+        <v/>
+      </c>
+      <c r="B10" s="41" t="str">
+        <f>IF(LEN(データ設定用!O8)&gt;0,データ設定用!O8,"")</f>
+        <v/>
+      </c>
+      <c r="C10" s="41" t="str">
+        <f>IF(LEN(データ設定用!M8)&gt;0,データ設定用!M8,"")</f>
         <v/>
       </c>
       <c r="D10" s="41" t="str">
-        <f>IF(LEN(データ設定用!O10)&gt;0,データ設定用!O10,"")</f>
+        <f>IF(MOD(ROUNDDOWN(データ設定用!$R8/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R8/10000000,0),10),"")</f>
         <v/>
       </c>
       <c r="E10" s="41" t="str">
-        <f>IF(LEN(データ設定用!M10)&gt;0,データ設定用!M10,"")</f>
+        <f>IF(OR(MAX($D10:D11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/1000000,0),10),"")</f>
         <v/>
       </c>
       <c r="F10" s="41" t="str">
-        <f>IF(MOD(ROUNDDOWN(データ設定用!$R8/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R8/10000000,0),10),"")</f>
+        <f>IF(OR(MAX($D10:E11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/100000,0),10),"")</f>
         <v/>
       </c>
       <c r="G10" s="41" t="str">
-        <f>IF(OR(MAX($F10:F11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/1000000,0),10),"")</f>
+        <f>IF(OR(MAX($D10:F11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/10000,0),10),"")</f>
         <v/>
       </c>
       <c r="H10" s="41" t="str">
-        <f>IF(OR(MAX($F10:G11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/100000,0),10),"")</f>
+        <f>IF(OR(MAX($D10:G11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/1000,0),10),"")</f>
         <v/>
       </c>
       <c r="I10" s="41" t="str">
-        <f>IF(OR(MAX($F10:H11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/10000,0),10),"")</f>
+        <f>IF(OR(MAX($D10:H11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/100,0),10),"")</f>
         <v/>
       </c>
       <c r="J10" s="41" t="str">
-        <f>IF(OR(MAX($F10:I11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/1000,0),10),"")</f>
+        <f>IF(OR(MAX($D10:I11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/10,0),10),"")</f>
         <v/>
       </c>
       <c r="K10" s="41" t="str">
-        <f>IF(OR(MAX($F10:J11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/100,0),10),"")</f>
-        <v/>
-      </c>
-      <c r="L10" s="41" t="str">
-        <f>IF(OR(MAX($F10:K11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/10,0),10),"")</f>
-        <v/>
-      </c>
-      <c r="M10" s="41" t="str">
         <f>IF(LEN(データ設定用!$R8)&gt;0,MOD(データ設定用!$R8,10),"")</f>
         <v/>
       </c>
-      <c r="N10" s="35" t="str">
+      <c r="L10" s="35" t="str">
         <f>IF(LEN(データ設定用!S8)&gt;0,データ設定用!S8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="3:14" ht="19.95" customHeight="1">
-      <c r="C11" s="40"/>
+    <row r="11" spans="1:12" ht="19.95" customHeight="1">
+      <c r="A11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="41"/>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
@@ -1928,65 +1928,65 @@
       <c r="I11" s="41"/>
       <c r="J11" s="41"/>
       <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="35" t="str">
+      <c r="L11" s="35" t="str">
         <f>IF(LEN(データ設定用!I8)&gt;0,データ設定用!I8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="3:14" ht="19.95" customHeight="1">
-      <c r="C12" s="40" t="str">
-        <f>IF(LEN(データ設定用!K12)&gt;0,データ設定用!K12,"")</f>
+    <row r="12" spans="1:12" ht="19.95" customHeight="1">
+      <c r="A12" s="40" t="str">
+        <f>IF(LEN(データ設定用!K9)&gt;0,データ設定用!K9,"")</f>
+        <v/>
+      </c>
+      <c r="B12" s="41" t="str">
+        <f>IF(LEN(データ設定用!O9)&gt;0,データ設定用!O9,"")</f>
+        <v/>
+      </c>
+      <c r="C12" s="41" t="str">
+        <f>IF(LEN(データ設定用!M9)&gt;0,データ設定用!M9,"")</f>
         <v/>
       </c>
       <c r="D12" s="41" t="str">
-        <f>IF(LEN(データ設定用!O12)&gt;0,データ設定用!O12,"")</f>
+        <f>IF(MOD(ROUNDDOWN(データ設定用!$R9/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R9/10000000,0),10),"")</f>
         <v/>
       </c>
       <c r="E12" s="41" t="str">
-        <f>IF(LEN(データ設定用!M12)&gt;0,データ設定用!M12,"")</f>
+        <f>IF(OR(MAX($D12:D13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/1000000,0),10),"")</f>
         <v/>
       </c>
       <c r="F12" s="41" t="str">
-        <f>IF(MOD(ROUNDDOWN(データ設定用!$R9/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R9/10000000,0),10),"")</f>
+        <f>IF(OR(MAX($D12:E13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/100000,0),10),"")</f>
         <v/>
       </c>
       <c r="G12" s="41" t="str">
-        <f>IF(OR(MAX($F12:F13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/1000000,0),10),"")</f>
+        <f>IF(OR(MAX($D12:F13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/10000,0),10),"")</f>
         <v/>
       </c>
       <c r="H12" s="41" t="str">
-        <f>IF(OR(MAX($F12:G13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/100000,0),10),"")</f>
+        <f>IF(OR(MAX($D12:G13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/1000,0),10),"")</f>
         <v/>
       </c>
       <c r="I12" s="41" t="str">
-        <f>IF(OR(MAX($F12:H13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/10000,0),10),"")</f>
+        <f>IF(OR(MAX($D12:H13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/100,0),10),"")</f>
         <v/>
       </c>
       <c r="J12" s="41" t="str">
-        <f>IF(OR(MAX($F12:I13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/1000,0),10),"")</f>
+        <f>IF(OR(MAX($D12:I13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/10,0),10),"")</f>
         <v/>
       </c>
       <c r="K12" s="41" t="str">
-        <f>IF(OR(MAX($F12:J13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/100,0),10),"")</f>
-        <v/>
-      </c>
-      <c r="L12" s="41" t="str">
-        <f>IF(OR(MAX($F12:K13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/10,0),10),"")</f>
-        <v/>
-      </c>
-      <c r="M12" s="41" t="str">
         <f>IF(LEN(データ設定用!$R9)&gt;0,MOD(データ設定用!$R9,10),"")</f>
         <v/>
       </c>
-      <c r="N12" s="35" t="str">
+      <c r="L12" s="35" t="str">
         <f>IF(LEN(データ設定用!S9)&gt;0,データ設定用!S9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="3:14" ht="19.95" customHeight="1">
-      <c r="C13" s="40"/>
+    <row r="13" spans="1:12" ht="19.95" customHeight="1">
+      <c r="A13" s="40"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="41"/>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
@@ -1995,65 +1995,65 @@
       <c r="I13" s="41"/>
       <c r="J13" s="41"/>
       <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="35" t="str">
+      <c r="L13" s="35" t="str">
         <f>IF(LEN(データ設定用!I9)&gt;0,データ設定用!I9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="3:14" ht="19.95" customHeight="1">
-      <c r="C14" s="40" t="str">
-        <f>IF(LEN(データ設定用!K14)&gt;0,データ設定用!K14,"")</f>
+    <row r="14" spans="1:12" ht="19.95" customHeight="1">
+      <c r="A14" s="40" t="str">
+        <f>IF(LEN(データ設定用!K10)&gt;0,データ設定用!K10,"")</f>
+        <v/>
+      </c>
+      <c r="B14" s="41" t="str">
+        <f>IF(LEN(データ設定用!O10)&gt;0,データ設定用!O10,"")</f>
+        <v/>
+      </c>
+      <c r="C14" s="41" t="str">
+        <f>IF(LEN(データ設定用!M10)&gt;0,データ設定用!M10,"")</f>
         <v/>
       </c>
       <c r="D14" s="41" t="str">
-        <f>IF(LEN(データ設定用!O14)&gt;0,データ設定用!O14,"")</f>
+        <f>IF(MOD(ROUNDDOWN(データ設定用!$R10/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R10/10000000,0),10),"")</f>
         <v/>
       </c>
       <c r="E14" s="41" t="str">
-        <f>IF(LEN(データ設定用!M14)&gt;0,データ設定用!M14,"")</f>
+        <f>IF(OR(MAX($D14:D15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/1000000,0),10),"")</f>
         <v/>
       </c>
       <c r="F14" s="41" t="str">
-        <f>IF(MOD(ROUNDDOWN(データ設定用!$R10/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R10/10000000,0),10),"")</f>
+        <f>IF(OR(MAX($D14:E15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/100000,0),10),"")</f>
         <v/>
       </c>
       <c r="G14" s="41" t="str">
-        <f>IF(OR(MAX($F14:F15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/1000000,0),10),"")</f>
+        <f>IF(OR(MAX($D14:F15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/10000,0),10),"")</f>
         <v/>
       </c>
       <c r="H14" s="41" t="str">
-        <f>IF(OR(MAX($F14:G15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/100000,0),10),"")</f>
+        <f>IF(OR(MAX($D14:G15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/1000,0),10),"")</f>
         <v/>
       </c>
       <c r="I14" s="41" t="str">
-        <f>IF(OR(MAX($F14:H15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/10000,0),10),"")</f>
+        <f>IF(OR(MAX($D14:H15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/100,0),10),"")</f>
         <v/>
       </c>
       <c r="J14" s="41" t="str">
-        <f>IF(OR(MAX($F14:I15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/1000,0),10),"")</f>
+        <f>IF(OR(MAX($D14:I15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/10,0),10),"")</f>
         <v/>
       </c>
       <c r="K14" s="41" t="str">
-        <f>IF(OR(MAX($F14:J15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/100,0),10),"")</f>
-        <v/>
-      </c>
-      <c r="L14" s="41" t="str">
-        <f>IF(OR(MAX($F14:K15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/10,0),10),"")</f>
-        <v/>
-      </c>
-      <c r="M14" s="41" t="str">
         <f>IF(LEN(データ設定用!$R10)&gt;0,MOD(データ設定用!$R1,10),"")</f>
         <v/>
       </c>
-      <c r="N14" s="35" t="str">
+      <c r="L14" s="35" t="str">
         <f>IF(LEN(データ設定用!S10)&gt;0,データ設定用!S10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="3:14" ht="19.95" customHeight="1">
-      <c r="C15" s="40"/>
+    <row r="15" spans="1:12" ht="19.95" customHeight="1">
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="41"/>
@@ -2062,65 +2062,65 @@
       <c r="I15" s="41"/>
       <c r="J15" s="41"/>
       <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="35" t="str">
+      <c r="L15" s="35" t="str">
         <f>IF(LEN(データ設定用!I10)&gt;0,データ設定用!I10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="3:14" ht="19.95" customHeight="1">
-      <c r="C16" s="40" t="str">
-        <f>IF(LEN(データ設定用!K16)&gt;0,データ設定用!K16,"")</f>
+    <row r="16" spans="1:12" ht="19.95" customHeight="1">
+      <c r="A16" s="40" t="str">
+        <f>IF(LEN(データ設定用!K11)&gt;0,データ設定用!K11,"")</f>
+        <v/>
+      </c>
+      <c r="B16" s="41" t="str">
+        <f>IF(LEN(データ設定用!O11)&gt;0,データ設定用!O11,"")</f>
+        <v/>
+      </c>
+      <c r="C16" s="41" t="str">
+        <f>IF(LEN(データ設定用!M11)&gt;0,データ設定用!M11,"")</f>
         <v/>
       </c>
       <c r="D16" s="41" t="str">
-        <f>IF(LEN(データ設定用!O16)&gt;0,データ設定用!O16,"")</f>
+        <f>IF(MOD(ROUNDDOWN(データ設定用!$R11/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R11/10000000,0),10),"")</f>
         <v/>
       </c>
       <c r="E16" s="41" t="str">
-        <f>IF(LEN(データ設定用!M16)&gt;0,データ設定用!M16,"")</f>
+        <f>IF(OR(MAX($D16:D17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/1000000,0),10),"")</f>
         <v/>
       </c>
       <c r="F16" s="41" t="str">
-        <f>IF(MOD(ROUNDDOWN(データ設定用!$R11/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R11/10000000,0),10),"")</f>
+        <f>IF(OR(MAX($D16:E17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/100000,0),10),"")</f>
         <v/>
       </c>
       <c r="G16" s="41" t="str">
-        <f>IF(OR(MAX($F16:F17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/1000000,0),10),"")</f>
+        <f>IF(OR(MAX($D16:F17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/10000,0),10),"")</f>
         <v/>
       </c>
       <c r="H16" s="41" t="str">
-        <f>IF(OR(MAX($F16:G17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/100000,0),10),"")</f>
+        <f>IF(OR(MAX($D16:G17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/1000,0),10),"")</f>
         <v/>
       </c>
       <c r="I16" s="41" t="str">
-        <f>IF(OR(MAX($F16:H17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/10000,0),10),"")</f>
+        <f>IF(OR(MAX($D16:H17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/100,0),10),"")</f>
         <v/>
       </c>
       <c r="J16" s="41" t="str">
-        <f>IF(OR(MAX($F16:I17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/1000,0),10),"")</f>
+        <f>IF(OR(MAX($D16:I17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/10,0),10),"")</f>
         <v/>
       </c>
       <c r="K16" s="41" t="str">
-        <f>IF(OR(MAX($F16:J17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/100,0),10),"")</f>
-        <v/>
-      </c>
-      <c r="L16" s="41" t="str">
-        <f>IF(OR(MAX($F16:K17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/10,0),10),"")</f>
-        <v/>
-      </c>
-      <c r="M16" s="41" t="str">
         <f>IF(LEN(データ設定用!$R11)&gt;0,MOD(データ設定用!$R11,10),"")</f>
         <v/>
       </c>
-      <c r="N16" s="35" t="str">
+      <c r="L16" s="35" t="str">
         <f>IF(LEN(データ設定用!S11)&gt;0,データ設定用!S11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="3:14" ht="19.95" customHeight="1">
-      <c r="C17" s="40"/>
+    <row r="17" spans="1:12" ht="19.95" customHeight="1">
+      <c r="A17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
@@ -2129,65 +2129,65 @@
       <c r="I17" s="41"/>
       <c r="J17" s="41"/>
       <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="35" t="str">
+      <c r="L17" s="35" t="str">
         <f>IF(LEN(データ設定用!I11)&gt;0,データ設定用!I11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="3:14" ht="19.95" customHeight="1">
-      <c r="C18" s="40" t="str">
-        <f>IF(LEN(データ設定用!K18)&gt;0,データ設定用!K18,"")</f>
+    <row r="18" spans="1:12" ht="19.95" customHeight="1">
+      <c r="A18" s="40" t="str">
+        <f>IF(LEN(データ設定用!K12)&gt;0,データ設定用!K12,"")</f>
+        <v/>
+      </c>
+      <c r="B18" s="41" t="str">
+        <f>IF(LEN(データ設定用!O12)&gt;0,データ設定用!O12,"")</f>
+        <v/>
+      </c>
+      <c r="C18" s="41" t="str">
+        <f>IF(LEN(データ設定用!M12)&gt;0,データ設定用!M12,"")</f>
         <v/>
       </c>
       <c r="D18" s="41" t="str">
-        <f>IF(LEN(データ設定用!O18)&gt;0,データ設定用!O18,"")</f>
+        <f>IF(MOD(ROUNDDOWN(データ設定用!$R12/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R12/10000000,0),10),"")</f>
         <v/>
       </c>
       <c r="E18" s="41" t="str">
-        <f>IF(LEN(データ設定用!M18)&gt;0,データ設定用!M18,"")</f>
+        <f>IF(OR(MAX($D18:D19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/1000000,0),10),"")</f>
         <v/>
       </c>
       <c r="F18" s="41" t="str">
-        <f>IF(MOD(ROUNDDOWN(データ設定用!$R12/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R12/10000000,0),10),"")</f>
+        <f>IF(OR(MAX($D18:E19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/100000,0),10),"")</f>
         <v/>
       </c>
       <c r="G18" s="41" t="str">
-        <f>IF(OR(MAX($F18:F19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/1000000,0),10),"")</f>
+        <f>IF(OR(MAX($D18:F19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/10000,0),10),"")</f>
         <v/>
       </c>
       <c r="H18" s="41" t="str">
-        <f>IF(OR(MAX($F18:G19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/100000,0),10),"")</f>
+        <f>IF(OR(MAX($D18:G19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/1000,0),10),"")</f>
         <v/>
       </c>
       <c r="I18" s="41" t="str">
-        <f>IF(OR(MAX($F18:H19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/10000,0),10),"")</f>
+        <f>IF(OR(MAX($D18:H19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/100,0),10),"")</f>
         <v/>
       </c>
       <c r="J18" s="41" t="str">
-        <f>IF(OR(MAX($F18:I19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/1000,0),10),"")</f>
+        <f>IF(OR(MAX($D18:I19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/10,0),10),"")</f>
         <v/>
       </c>
       <c r="K18" s="41" t="str">
-        <f>IF(OR(MAX($F18:J19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/100,0),10),"")</f>
-        <v/>
-      </c>
-      <c r="L18" s="41" t="str">
-        <f>IF(OR(MAX($F18:K19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/10,0),10),"")</f>
-        <v/>
-      </c>
-      <c r="M18" s="41" t="str">
         <f>IF(LEN(データ設定用!$R12)&gt;0,MOD(データ設定用!$R12,10),"")</f>
         <v/>
       </c>
-      <c r="N18" s="35" t="str">
+      <c r="L18" s="35" t="str">
         <f>IF(LEN(データ設定用!S12)&gt;0,データ設定用!S12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="3:14" ht="19.95" customHeight="1">
-      <c r="C19" s="40"/>
+    <row r="19" spans="1:12" ht="19.95" customHeight="1">
+      <c r="A19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="41"/>
@@ -2196,141 +2196,141 @@
       <c r="I19" s="41"/>
       <c r="J19" s="41"/>
       <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="35" t="str">
+      <c r="L19" s="35" t="str">
         <f>IF(LEN(データ設定用!I12)&gt;0,データ設定用!I12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="3:14" ht="39" customHeight="1">
-      <c r="C20" s="4" t="s">
+    <row r="20" spans="1:12" ht="39" customHeight="1">
+      <c r="A20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34" t="str">
+        <f>IF(MOD(ROUNDDOWN(データ設定用!$V$3/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$V$3/10000000,0),10),"")</f>
+        <v/>
+      </c>
+      <c r="E20" s="34" t="str">
+        <f>IF(OR(MAX(D20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/1000000,0),10),"")</f>
+        <v/>
+      </c>
       <c r="F20" s="34" t="str">
-        <f>IF(MOD(ROUNDDOWN(データ設定用!$V$3/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$V$3/10000000,0),10),"")</f>
-        <v/>
-      </c>
-      <c r="G20" s="34" t="str">
-        <f>IF(OR(MAX(F20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/1000000,0),10),"")</f>
-        <v/>
-      </c>
-      <c r="H20" s="34" t="str">
-        <f>IF(OR(MAX(F20:G20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/100000,0),10),"")</f>
-        <v/>
+        <f>IF(OR(MAX(D20:E20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/100000,0),10),"")</f>
+        <v/>
+      </c>
+      <c r="G20" s="34">
+        <f>IF(OR(MAX(D20:F20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/10000,0),10),"")</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="34">
+        <f>IF(OR(MAX(D20:G20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/1000,0),10),"")</f>
+        <v>2</v>
       </c>
       <c r="I20" s="34">
-        <f>IF(OR(MAX(F20:H20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/10000,0),10),"")</f>
-        <v>1</v>
+        <f>IF(OR(MAX(D20:H20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/100,0),10),"")</f>
+        <v>5</v>
       </c>
       <c r="J20" s="34">
-        <f>IF(OR(MAX(F20:I20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/1000,0),10),"")</f>
-        <v>2</v>
+        <f>IF(OR(MAX(D20:I20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/10,0),10),"")</f>
+        <v>0</v>
       </c>
       <c r="K20" s="34">
-        <f>IF(OR(MAX(F20:J20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/100,0),10),"")</f>
-        <v>5</v>
-      </c>
-      <c r="L20" s="34">
-        <f>IF(OR(MAX(F20:K20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/10,0),10),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="34">
         <f>MOD(データ設定用!V$3,10)</f>
         <v>0</v>
       </c>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="3:14" ht="39.450000000000003" customHeight="1">
-      <c r="C21" s="31">
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" ht="39.450000000000003" customHeight="1">
+      <c r="A21" s="31">
         <f>IF(データ設定用!AI3&lt;&gt;0,
 CONCATENATE("消費税(",データ設定用!AA3*100,"%)","　",TEXT(データ設定用!AI3,"0"),CHAR(10),データ設定用!AE3),
 データ設定用!AE3)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="B21" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="34" t="str">
+        <f>IF(MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10000000,0),10) &gt; 0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10000000,0),10),"")</f>
+        <v/>
+      </c>
+      <c r="E21" s="34" t="str">
+        <f>IF(OR(MAX(D21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/1000000,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/1000000,0),10),"")</f>
+        <v/>
+      </c>
       <c r="F21" s="34" t="str">
-        <f>IF(MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10000000,0),10) &gt; 0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10000000,0),10),"")</f>
-        <v/>
-      </c>
-      <c r="G21" s="34" t="str">
-        <f>IF(OR(MAX(F21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/1000000,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/1000000,0),10),"")</f>
-        <v/>
-      </c>
-      <c r="H21" s="34" t="str">
-        <f>IF(OR(MAX(F21:G21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/100000,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/100000,0),10),"")</f>
-        <v/>
+        <f>IF(OR(MAX(D21:E21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/100000,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/100000,0),10),"")</f>
+        <v/>
+      </c>
+      <c r="G21" s="34">
+        <f>IF(OR(MAX(D21:F21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10000,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10000,0),10),"")</f>
+        <v>1</v>
+      </c>
+      <c r="H21" s="34">
+        <f>IF(OR(MAX(D21:G21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/1000,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/1000,0),10),"")</f>
+        <v>2</v>
       </c>
       <c r="I21" s="34">
-        <f>IF(OR(MAX(F21:H21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10000,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10000,0),10),"")</f>
-        <v>1</v>
+        <f>IF(OR(MAX(D21:H21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/100,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/100,0),10),"")</f>
+        <v>5</v>
       </c>
       <c r="J21" s="34">
-        <f>IF(OR(MAX(F21:I21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/1000,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/1000,0),10),"")</f>
-        <v>2</v>
+        <f>IF(OR(MAX(D21:I21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10,0),10),"")</f>
+        <v>0</v>
       </c>
       <c r="K21" s="34">
-        <f>IF(OR(MAX(F21:J21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/100,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/100,0),10),"")</f>
-        <v>5</v>
-      </c>
-      <c r="L21" s="34">
-        <f>IF(OR(MAX(F21:K21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10,0),10),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="34">
         <f>MOD((データ設定用!$V$3+データ設定用!$AI$3),10)</f>
         <v>0</v>
       </c>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="3:14" ht="18" customHeight="1">
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" ht="18" customHeight="1">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="42" t="s">
+      <c r="H22" s="42" t="s">
         <v>0</v>
       </c>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
       <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="25">
+      <c r="L22" s="25">
         <f>データ設定用!D3</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
@@ -2340,19 +2340,19 @@
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
@@ -2362,19 +2362,19 @@
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
@@ -2384,8 +2384,6 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -2795,7 +2793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AJ12"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>

--- a/01_kidsweb/home/kids2/report_tmp/slip_comm.xlsx
+++ b/01_kidsweb/home/kids2/report_tmp/slip_comm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46265069-8DEC-4137-B638-A21BD3F13246}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0742F964-3487-46F2-B4DD-CE987BA8DDDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1011,8 +1011,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -1192,7 +1193,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1248,9 +1249,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1261,12 +1259,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1274,6 +1266,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1286,6 +1284,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -1659,8 +1663,8 @@
   </sheetPr>
   <dimension ref="A2:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9:T10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1718,62 +1722,62 @@
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
       <c r="L5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A6" s="40" t="str">
+      <c r="A6" s="43" t="str">
         <f>IF(LEN(データ設定用!K6)&gt;0,データ設定用!K6,"")</f>
         <v/>
       </c>
-      <c r="B6" s="41" t="str">
+      <c r="B6" s="42" t="str">
         <f>IF(LEN(データ設定用!O6)&gt;0,データ設定用!O6,"")</f>
         <v/>
       </c>
-      <c r="C6" s="41" t="str">
+      <c r="C6" s="48" t="str">
         <f>IF(LEN(データ設定用!M6)&gt;0,データ設定用!M6,"")</f>
         <v/>
       </c>
-      <c r="D6" s="41" t="str">
+      <c r="D6" s="42" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R6/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R6/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="E6" s="41" t="str">
+      <c r="E6" s="42" t="str">
         <f>IF(OR(MAX($D6:D7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="F6" s="41" t="str">
+      <c r="F6" s="42" t="str">
         <f>IF(OR(MAX($D6:E7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G6" s="41" t="str">
+      <c r="G6" s="42" t="str">
         <f>IF(OR(MAX($D6:F7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H6" s="41" t="str">
+      <c r="H6" s="42" t="str">
         <f>IF(OR(MAX($D6:G7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I6" s="41" t="str">
+      <c r="I6" s="42" t="str">
         <f>IF(OR(MAX($D6:H7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="J6" s="41" t="str">
+      <c r="J6" s="42" t="str">
         <f>IF(OR(MAX($D6:I7)&gt;0,MOD(ROUNDDOWN(データ設定用!$R6/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R6/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="K6" s="41" t="str">
+      <c r="K6" s="42" t="str">
         <f>IF(LEN(データ設定用!$R6)&gt;0,MOD(データ設定用!$R6,10),"")</f>
         <v/>
       </c>
@@ -1783,64 +1787,64 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="35" t="str">
+      <c r="A7" s="43"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="34" t="str">
         <f>IF(LEN(データ設定用!I6)&gt;0,データ設定用!I6,"")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A8" s="40" t="str">
+      <c r="A8" s="43" t="str">
         <f>IF(LEN(データ設定用!K7)&gt;0,データ設定用!K7,"")</f>
         <v/>
       </c>
-      <c r="B8" s="41" t="str">
+      <c r="B8" s="42" t="str">
         <f>IF(LEN(データ設定用!O7)&gt;0,データ設定用!O7,"")</f>
         <v/>
       </c>
-      <c r="C8" s="41" t="str">
+      <c r="C8" s="48" t="str">
         <f>IF(LEN(データ設定用!M7)&gt;0,データ設定用!M7,"")</f>
         <v/>
       </c>
-      <c r="D8" s="41" t="str">
+      <c r="D8" s="42" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R7/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R7/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="E8" s="41" t="str">
+      <c r="E8" s="42" t="str">
         <f>IF(OR(MAX($D8:D9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="F8" s="41" t="str">
+      <c r="F8" s="42" t="str">
         <f>IF(OR(MAX($D8:E9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G8" s="41" t="str">
+      <c r="G8" s="42" t="str">
         <f>IF(OR(MAX($D8:F9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H8" s="41" t="str">
+      <c r="H8" s="42" t="str">
         <f>IF(OR(MAX($D8:G9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I8" s="41" t="str">
+      <c r="I8" s="42" t="str">
         <f>IF(OR(MAX($D8:H9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="J8" s="41" t="str">
+      <c r="J8" s="42" t="str">
         <f>IF(OR(MAX($D8:I9)&gt;0,MOD(ROUNDDOWN(データ設定用!$R7/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R7/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="K8" s="41" t="str">
+      <c r="K8" s="42" t="str">
         <f>IF(LEN(データ設定用!$R7)&gt;0,MOD(データ設定用!$R7,10),"")</f>
         <v/>
       </c>
@@ -1850,353 +1854,353 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A9" s="40"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="35" t="str">
+      <c r="A9" s="43"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="34" t="str">
         <f>IF(LEN(データ設定用!I7)&gt;0,データ設定用!I7,"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A10" s="40" t="str">
+      <c r="A10" s="43" t="str">
         <f>IF(LEN(データ設定用!K8)&gt;0,データ設定用!K8,"")</f>
         <v/>
       </c>
-      <c r="B10" s="41" t="str">
+      <c r="B10" s="42" t="str">
         <f>IF(LEN(データ設定用!O8)&gt;0,データ設定用!O8,"")</f>
         <v/>
       </c>
-      <c r="C10" s="41" t="str">
+      <c r="C10" s="48" t="str">
         <f>IF(LEN(データ設定用!M8)&gt;0,データ設定用!M8,"")</f>
         <v/>
       </c>
-      <c r="D10" s="41" t="str">
+      <c r="D10" s="42" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R8/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R8/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="E10" s="41" t="str">
+      <c r="E10" s="42" t="str">
         <f>IF(OR(MAX($D10:D11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="F10" s="41" t="str">
+      <c r="F10" s="42" t="str">
         <f>IF(OR(MAX($D10:E11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G10" s="41" t="str">
+      <c r="G10" s="42" t="str">
         <f>IF(OR(MAX($D10:F11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H10" s="41" t="str">
+      <c r="H10" s="42" t="str">
         <f>IF(OR(MAX($D10:G11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I10" s="41" t="str">
+      <c r="I10" s="42" t="str">
         <f>IF(OR(MAX($D10:H11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="J10" s="41" t="str">
+      <c r="J10" s="42" t="str">
         <f>IF(OR(MAX($D10:I11)&gt;0,MOD(ROUNDDOWN(データ設定用!$R8/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R8/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="K10" s="41" t="str">
+      <c r="K10" s="42" t="str">
         <f>IF(LEN(データ設定用!$R8)&gt;0,MOD(データ設定用!$R8,10),"")</f>
         <v/>
       </c>
-      <c r="L10" s="35" t="str">
+      <c r="L10" s="34" t="str">
         <f>IF(LEN(データ設定用!S8)&gt;0,データ設定用!S8,"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A11" s="40"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="35" t="str">
+      <c r="A11" s="43"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="34" t="str">
         <f>IF(LEN(データ設定用!I8)&gt;0,データ設定用!I8,"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A12" s="40" t="str">
+      <c r="A12" s="43" t="str">
         <f>IF(LEN(データ設定用!K9)&gt;0,データ設定用!K9,"")</f>
         <v/>
       </c>
-      <c r="B12" s="41" t="str">
+      <c r="B12" s="42" t="str">
         <f>IF(LEN(データ設定用!O9)&gt;0,データ設定用!O9,"")</f>
         <v/>
       </c>
-      <c r="C12" s="41" t="str">
+      <c r="C12" s="48" t="str">
         <f>IF(LEN(データ設定用!M9)&gt;0,データ設定用!M9,"")</f>
         <v/>
       </c>
-      <c r="D12" s="41" t="str">
+      <c r="D12" s="42" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R9/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R9/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="E12" s="41" t="str">
+      <c r="E12" s="42" t="str">
         <f>IF(OR(MAX($D12:D13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="F12" s="41" t="str">
+      <c r="F12" s="42" t="str">
         <f>IF(OR(MAX($D12:E13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G12" s="41" t="str">
+      <c r="G12" s="42" t="str">
         <f>IF(OR(MAX($D12:F13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H12" s="41" t="str">
+      <c r="H12" s="42" t="str">
         <f>IF(OR(MAX($D12:G13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I12" s="41" t="str">
+      <c r="I12" s="42" t="str">
         <f>IF(OR(MAX($D12:H13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="J12" s="41" t="str">
+      <c r="J12" s="42" t="str">
         <f>IF(OR(MAX($D12:I13)&gt;0,MOD(ROUNDDOWN(データ設定用!$R9/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R9/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="K12" s="41" t="str">
+      <c r="K12" s="42" t="str">
         <f>IF(LEN(データ設定用!$R9)&gt;0,MOD(データ設定用!$R9,10),"")</f>
         <v/>
       </c>
-      <c r="L12" s="35" t="str">
+      <c r="L12" s="34" t="str">
         <f>IF(LEN(データ設定用!S9)&gt;0,データ設定用!S9,"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A13" s="40"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="35" t="str">
+      <c r="A13" s="43"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="34" t="str">
         <f>IF(LEN(データ設定用!I9)&gt;0,データ設定用!I9,"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A14" s="40" t="str">
+      <c r="A14" s="43" t="str">
         <f>IF(LEN(データ設定用!K10)&gt;0,データ設定用!K10,"")</f>
         <v/>
       </c>
-      <c r="B14" s="41" t="str">
+      <c r="B14" s="42" t="str">
         <f>IF(LEN(データ設定用!O10)&gt;0,データ設定用!O10,"")</f>
         <v/>
       </c>
-      <c r="C14" s="41" t="str">
+      <c r="C14" s="48" t="str">
         <f>IF(LEN(データ設定用!M10)&gt;0,データ設定用!M10,"")</f>
         <v/>
       </c>
-      <c r="D14" s="41" t="str">
+      <c r="D14" s="42" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R10/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R10/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="E14" s="41" t="str">
+      <c r="E14" s="42" t="str">
         <f>IF(OR(MAX($D14:D15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="F14" s="41" t="str">
+      <c r="F14" s="42" t="str">
         <f>IF(OR(MAX($D14:E15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G14" s="41" t="str">
+      <c r="G14" s="42" t="str">
         <f>IF(OR(MAX($D14:F15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H14" s="41" t="str">
+      <c r="H14" s="42" t="str">
         <f>IF(OR(MAX($D14:G15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I14" s="41" t="str">
+      <c r="I14" s="42" t="str">
         <f>IF(OR(MAX($D14:H15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="J14" s="41" t="str">
+      <c r="J14" s="42" t="str">
         <f>IF(OR(MAX($D14:I15)&gt;0,MOD(ROUNDDOWN(データ設定用!$R10/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R10/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="K14" s="41" t="str">
+      <c r="K14" s="42" t="str">
         <f>IF(LEN(データ設定用!$R10)&gt;0,MOD(データ設定用!$R1,10),"")</f>
         <v/>
       </c>
-      <c r="L14" s="35" t="str">
+      <c r="L14" s="34" t="str">
         <f>IF(LEN(データ設定用!S10)&gt;0,データ設定用!S10,"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="35" t="str">
+      <c r="A15" s="43"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="34" t="str">
         <f>IF(LEN(データ設定用!I10)&gt;0,データ設定用!I10,"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A16" s="40" t="str">
+      <c r="A16" s="43" t="str">
         <f>IF(LEN(データ設定用!K11)&gt;0,データ設定用!K11,"")</f>
         <v/>
       </c>
-      <c r="B16" s="41" t="str">
+      <c r="B16" s="42" t="str">
         <f>IF(LEN(データ設定用!O11)&gt;0,データ設定用!O11,"")</f>
         <v/>
       </c>
-      <c r="C16" s="41" t="str">
+      <c r="C16" s="48" t="str">
         <f>IF(LEN(データ設定用!M11)&gt;0,データ設定用!M11,"")</f>
         <v/>
       </c>
-      <c r="D16" s="41" t="str">
+      <c r="D16" s="42" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R11/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R11/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="E16" s="41" t="str">
+      <c r="E16" s="42" t="str">
         <f>IF(OR(MAX($D16:D17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="F16" s="41" t="str">
+      <c r="F16" s="42" t="str">
         <f>IF(OR(MAX($D16:E17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G16" s="41" t="str">
+      <c r="G16" s="42" t="str">
         <f>IF(OR(MAX($D16:F17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H16" s="41" t="str">
+      <c r="H16" s="42" t="str">
         <f>IF(OR(MAX($D16:G17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I16" s="41" t="str">
+      <c r="I16" s="42" t="str">
         <f>IF(OR(MAX($D16:H17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="J16" s="41" t="str">
+      <c r="J16" s="42" t="str">
         <f>IF(OR(MAX($D16:I17)&gt;0,MOD(ROUNDDOWN(データ設定用!$R11/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R11/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="K16" s="41" t="str">
+      <c r="K16" s="42" t="str">
         <f>IF(LEN(データ設定用!$R11)&gt;0,MOD(データ設定用!$R11,10),"")</f>
         <v/>
       </c>
-      <c r="L16" s="35" t="str">
+      <c r="L16" s="34" t="str">
         <f>IF(LEN(データ設定用!S11)&gt;0,データ設定用!S11,"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="35" t="str">
+      <c r="A17" s="43"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="34" t="str">
         <f>IF(LEN(データ設定用!I11)&gt;0,データ設定用!I11,"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A18" s="40" t="str">
+      <c r="A18" s="43" t="str">
         <f>IF(LEN(データ設定用!K12)&gt;0,データ設定用!K12,"")</f>
         <v/>
       </c>
-      <c r="B18" s="41" t="str">
+      <c r="B18" s="42" t="str">
         <f>IF(LEN(データ設定用!O12)&gt;0,データ設定用!O12,"")</f>
         <v/>
       </c>
-      <c r="C18" s="41" t="str">
+      <c r="C18" s="48" t="str">
         <f>IF(LEN(データ設定用!M12)&gt;0,データ設定用!M12,"")</f>
         <v/>
       </c>
-      <c r="D18" s="41" t="str">
+      <c r="D18" s="42" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$R12/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$R12/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="E18" s="41" t="str">
+      <c r="E18" s="42" t="str">
         <f>IF(OR(MAX($D18:D19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="F18" s="41" t="str">
+      <c r="F18" s="42" t="str">
         <f>IF(OR(MAX($D18:E19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G18" s="41" t="str">
+      <c r="G18" s="42" t="str">
         <f>IF(OR(MAX($D18:F19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/10000,0),10),"")</f>
         <v/>
       </c>
-      <c r="H18" s="41" t="str">
+      <c r="H18" s="42" t="str">
         <f>IF(OR(MAX($D18:G19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/1000,0),10),"")</f>
         <v/>
       </c>
-      <c r="I18" s="41" t="str">
+      <c r="I18" s="42" t="str">
         <f>IF(OR(MAX($D18:H19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/100,0),10),"")</f>
         <v/>
       </c>
-      <c r="J18" s="41" t="str">
+      <c r="J18" s="42" t="str">
         <f>IF(OR(MAX($D18:I19)&gt;0,MOD(ROUNDDOWN(データ設定用!$R12/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$R12/10,0),10),"")</f>
         <v/>
       </c>
-      <c r="K18" s="41" t="str">
+      <c r="K18" s="42" t="str">
         <f>IF(LEN(データ設定用!$R12)&gt;0,MOD(データ設定用!$R12,10),"")</f>
         <v/>
       </c>
-      <c r="L18" s="35" t="str">
+      <c r="L18" s="34" t="str">
         <f>IF(LEN(データ設定用!S12)&gt;0,データ設定用!S12,"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:12" ht="19.95" customHeight="1">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="35" t="str">
+      <c r="A19" s="43"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="34" t="str">
         <f>IF(LEN(データ設定用!I12)&gt;0,データ設定用!I12,"")</f>
         <v/>
       </c>
@@ -2206,36 +2210,36 @@
         <v>2</v>
       </c>
       <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34" t="str">
+      <c r="C20" s="49"/>
+      <c r="D20" s="33" t="str">
         <f>IF(MOD(ROUNDDOWN(データ設定用!$V$3/10000000,0),10) &gt; 0,MOD(ROUNDDOWN(データ設定用!$V$3/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="E20" s="34" t="str">
+      <c r="E20" s="33" t="str">
         <f>IF(OR(MAX(D20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/1000000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="F20" s="34" t="str">
+      <c r="F20" s="33" t="str">
         <f>IF(OR(MAX(D20:E20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/100000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="33">
         <f>IF(OR(MAX(D20:F20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/10000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/10000,0),10),"")</f>
         <v>1</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="33">
         <f>IF(OR(MAX(D20:G20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/1000,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/1000,0),10),"")</f>
         <v>2</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="33">
         <f>IF(OR(MAX(D20:H20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/100,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/100,0),10),"")</f>
         <v>5</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="33">
         <f>IF(OR(MAX(D20:I20)&gt;0,MOD(ROUNDDOWN(データ設定用!$V$3/10,0),10) &gt; 0),MOD(ROUNDDOWN(データ設定用!$V$3/10,0),10),"")</f>
         <v>0</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="33">
         <f>MOD(データ設定用!V$3,10)</f>
         <v>0</v>
       </c>
@@ -2248,39 +2252,39 @@
 データ設定用!AE3)</f>
         <v>0</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="34" t="str">
+      <c r="C21" s="41"/>
+      <c r="D21" s="33" t="str">
         <f>IF(MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10000000,0),10) &gt; 0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="E21" s="34" t="str">
+      <c r="E21" s="33" t="str">
         <f>IF(OR(MAX(D21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/1000000,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/1000000,0),10),"")</f>
         <v/>
       </c>
-      <c r="F21" s="34" t="str">
+      <c r="F21" s="33" t="str">
         <f>IF(OR(MAX(D21:E21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/100000,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/100000,0),10),"")</f>
         <v/>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="33">
         <f>IF(OR(MAX(D21:F21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10000,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10000,0),10),"")</f>
         <v>1</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="33">
         <f>IF(OR(MAX(D21:G21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/1000,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/1000,0),10),"")</f>
         <v>2</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="33">
         <f>IF(OR(MAX(D21:H21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/100,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/100,0),10),"")</f>
         <v>5</v>
       </c>
-      <c r="J21" s="34">
+      <c r="J21" s="33">
         <f>IF(OR(MAX(D21:I21)&gt;0,MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10,0),10) &gt; 0),MOD(ROUNDDOWN((データ設定用!$V$3+データ設定用!$AI$3)/10,0),10),"")</f>
         <v>0</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="33">
         <f>MOD((データ設定用!$V$3+データ設定用!$AI$3),10)</f>
         <v>0</v>
       </c>
@@ -2291,12 +2295,12 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="42" t="s">
+      <c r="H22" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
       <c r="L22" s="25">
         <f>データ設定用!D3</f>
         <v>0</v>
@@ -2304,14 +2308,62 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="H22:K22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
@@ -2328,62 +2380,14 @@
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:E17"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -2412,30 +2416,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.45" customHeight="1">
-      <c r="B2" s="48" t="str">
+      <c r="B2" s="47" t="str">
         <f>CONCATENATE(データ設定用!G3,"　",データ設定用!O3,"様")</f>
         <v>　様</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1">
-      <c r="B3" s="48" t="str">
+      <c r="B3" s="47" t="str">
         <f>CONCATENATE(データ設定用!R3,"　",データ設定用!S3,"様")</f>
         <v>　様</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
     </row>
     <row r="4" spans="1:11" ht="9" customHeight="1">
       <c r="B4" s="8"/>
@@ -2448,12 +2452,12 @@
     <row r="5" spans="1:11" ht="30.45" customHeight="1" thickBot="1">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="7" spans="1:11" ht="20.7" customHeight="1">
       <c r="D7" s="10" t="s">
@@ -2469,11 +2473,11 @@
       <c r="D9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="45">
         <v>43712</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
     </row>
     <row r="10" spans="1:11" ht="10.95" customHeight="1">
       <c r="D10" s="12"/>
@@ -2516,32 +2520,32 @@
       <c r="A12" s="15">
         <v>1</v>
       </c>
-      <c r="B12" s="36" t="str">
+      <c r="B12" s="35" t="str">
         <f>IF(LEN(データ設定用!E6)&gt;0,データ設定用!E6,"")</f>
         <v/>
       </c>
-      <c r="C12" s="37" t="str">
+      <c r="C12" s="36" t="str">
         <f>IF(LEN(データ設定用!H6)&gt;0,データ設定用!H6,"")</f>
         <v/>
       </c>
-      <c r="D12" s="37" t="str">
+      <c r="D12" s="36" t="str">
         <f>IF(LEN(データ設定用!K6)&gt;0,データ設定用!K6,"")</f>
         <v/>
       </c>
-      <c r="E12" s="37" t="str">
+      <c r="E12" s="36" t="str">
         <f>IF(LEN(データ設定用!O6)&gt;0,データ設定用!O6,"")</f>
         <v/>
       </c>
-      <c r="F12" s="37" t="str">
+      <c r="F12" s="36" t="str">
         <f>IF(LEN(データ設定用!Q6)&gt;0,データ設定用!Q6,"")</f>
         <v/>
       </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="38" t="str">
+      <c r="G12" s="36"/>
+      <c r="H12" s="37" t="str">
         <f>IF(LEN(データ設定用!S6)&gt;0,CONCATENATE(データ設定用!S6,CHAR(10),データ設定用!$Z$3),"")</f>
         <v/>
       </c>
-      <c r="I12" s="39" t="str">
+      <c r="I12" s="38" t="str">
         <f>IF(LEN(D12)&gt;0,データ設定用!$R$3,"")</f>
         <v/>
       </c>
@@ -2552,32 +2556,32 @@
       <c r="A13" s="15">
         <v>2</v>
       </c>
-      <c r="B13" s="36" t="str">
+      <c r="B13" s="35" t="str">
         <f>IF(LEN(データ設定用!E7)&gt;0,データ設定用!E7,"")</f>
         <v/>
       </c>
-      <c r="C13" s="37" t="str">
+      <c r="C13" s="36" t="str">
         <f>IF(LEN(データ設定用!H7)&gt;0,データ設定用!H7,"")</f>
         <v/>
       </c>
-      <c r="D13" s="37" t="str">
+      <c r="D13" s="36" t="str">
         <f>IF(LEN(データ設定用!K7)&gt;0,データ設定用!K7,"")</f>
         <v/>
       </c>
-      <c r="E13" s="37" t="str">
+      <c r="E13" s="36" t="str">
         <f>IF(LEN(データ設定用!O7)&gt;0,データ設定用!O7,"")</f>
         <v/>
       </c>
-      <c r="F13" s="37" t="str">
+      <c r="F13" s="36" t="str">
         <f>IF(LEN(データ設定用!Q7)&gt;0,データ設定用!Q7,"")</f>
         <v/>
       </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38" t="str">
+      <c r="G13" s="36"/>
+      <c r="H13" s="37" t="str">
         <f>IF(LEN(データ設定用!S7)&gt;0,CONCATENATE(データ設定用!S7,CHAR(10),データ設定用!$Z$3),"")</f>
         <v/>
       </c>
-      <c r="I13" s="39" t="str">
+      <c r="I13" s="38" t="str">
         <f>IF(LEN(D13)&gt;0,データ設定用!$R$3,"")</f>
         <v/>
       </c>
@@ -2588,32 +2592,32 @@
       <c r="A14" s="15">
         <v>3</v>
       </c>
-      <c r="B14" s="36" t="str">
+      <c r="B14" s="35" t="str">
         <f>IF(LEN(データ設定用!E8)&gt;0,データ設定用!E8,"")</f>
         <v/>
       </c>
-      <c r="C14" s="37" t="str">
+      <c r="C14" s="36" t="str">
         <f>IF(LEN(データ設定用!H8)&gt;0,データ設定用!H8,"")</f>
         <v/>
       </c>
-      <c r="D14" s="37" t="str">
+      <c r="D14" s="36" t="str">
         <f>IF(LEN(データ設定用!K8)&gt;0,データ設定用!K8,"")</f>
         <v/>
       </c>
-      <c r="E14" s="37" t="str">
+      <c r="E14" s="36" t="str">
         <f>IF(LEN(データ設定用!O8)&gt;0,データ設定用!O8,"")</f>
         <v/>
       </c>
-      <c r="F14" s="37" t="str">
+      <c r="F14" s="36" t="str">
         <f>IF(LEN(データ設定用!Q8)&gt;0,データ設定用!Q8,"")</f>
         <v/>
       </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="38" t="str">
+      <c r="G14" s="36"/>
+      <c r="H14" s="37" t="str">
         <f>IF(LEN(データ設定用!S8)&gt;0,CONCATENATE(データ設定用!S8,CHAR(10),データ設定用!$Z$3),"")</f>
         <v/>
       </c>
-      <c r="I14" s="39" t="str">
+      <c r="I14" s="38" t="str">
         <f>IF(LEN(D14)&gt;0,データ設定用!$R$3,"")</f>
         <v/>
       </c>
@@ -2624,32 +2628,32 @@
       <c r="A15" s="15">
         <v>4</v>
       </c>
-      <c r="B15" s="36" t="str">
+      <c r="B15" s="35" t="str">
         <f>IF(LEN(データ設定用!E9)&gt;0,データ設定用!E9,"")</f>
         <v/>
       </c>
-      <c r="C15" s="37" t="str">
+      <c r="C15" s="36" t="str">
         <f>IF(LEN(データ設定用!H9)&gt;0,データ設定用!H9,"")</f>
         <v/>
       </c>
-      <c r="D15" s="37" t="str">
+      <c r="D15" s="36" t="str">
         <f>IF(LEN(データ設定用!K9)&gt;0,データ設定用!K9,"")</f>
         <v/>
       </c>
-      <c r="E15" s="37" t="str">
+      <c r="E15" s="36" t="str">
         <f>IF(LEN(データ設定用!O9)&gt;0,データ設定用!O9,"")</f>
         <v/>
       </c>
-      <c r="F15" s="37" t="str">
+      <c r="F15" s="36" t="str">
         <f>IF(LEN(データ設定用!Q9)&gt;0,データ設定用!Q9,"")</f>
         <v/>
       </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="38" t="str">
+      <c r="G15" s="36"/>
+      <c r="H15" s="37" t="str">
         <f>IF(LEN(データ設定用!S9)&gt;0,CONCATENATE(データ設定用!S9,CHAR(10),データ設定用!$Z$3),"")</f>
         <v/>
       </c>
-      <c r="I15" s="39" t="str">
+      <c r="I15" s="38" t="str">
         <f>IF(LEN(D15)&gt;0,データ設定用!$R$3,"")</f>
         <v/>
       </c>
@@ -2660,32 +2664,32 @@
       <c r="A16" s="15">
         <v>5</v>
       </c>
-      <c r="B16" s="36" t="str">
+      <c r="B16" s="35" t="str">
         <f>IF(LEN(データ設定用!E10)&gt;0,データ設定用!E10,"")</f>
         <v/>
       </c>
-      <c r="C16" s="37" t="str">
+      <c r="C16" s="36" t="str">
         <f>IF(LEN(データ設定用!H10)&gt;0,データ設定用!H10,"")</f>
         <v/>
       </c>
-      <c r="D16" s="37" t="str">
+      <c r="D16" s="36" t="str">
         <f>IF(LEN(データ設定用!K10)&gt;0,データ設定用!K10,"")</f>
         <v/>
       </c>
-      <c r="E16" s="37" t="str">
+      <c r="E16" s="36" t="str">
         <f>IF(LEN(データ設定用!O10)&gt;0,データ設定用!O10,"")</f>
         <v/>
       </c>
-      <c r="F16" s="37" t="str">
+      <c r="F16" s="36" t="str">
         <f>IF(LEN(データ設定用!Q10)&gt;0,データ設定用!Q10,"")</f>
         <v/>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="38" t="str">
+      <c r="G16" s="36"/>
+      <c r="H16" s="37" t="str">
         <f>IF(LEN(データ設定用!S10)&gt;0,CONCATENATE(データ設定用!S10,CHAR(10),データ設定用!$Z$3),"")</f>
         <v/>
       </c>
-      <c r="I16" s="39" t="str">
+      <c r="I16" s="38" t="str">
         <f>IF(LEN(D16)&gt;0,データ設定用!$R$3,"")</f>
         <v/>
       </c>
@@ -2696,32 +2700,32 @@
       <c r="A17" s="15">
         <v>6</v>
       </c>
-      <c r="B17" s="36" t="str">
+      <c r="B17" s="35" t="str">
         <f>IF(LEN(データ設定用!E11)&gt;0,データ設定用!E11,"")</f>
         <v/>
       </c>
-      <c r="C17" s="37" t="str">
+      <c r="C17" s="36" t="str">
         <f>IF(LEN(データ設定用!H11)&gt;0,データ設定用!H11,"")</f>
         <v/>
       </c>
-      <c r="D17" s="37" t="str">
+      <c r="D17" s="36" t="str">
         <f>IF(LEN(データ設定用!K11)&gt;0,データ設定用!K11,"")</f>
         <v/>
       </c>
-      <c r="E17" s="37" t="str">
+      <c r="E17" s="36" t="str">
         <f>IF(LEN(データ設定用!O11)&gt;0,データ設定用!O11,"")</f>
         <v/>
       </c>
-      <c r="F17" s="37" t="str">
+      <c r="F17" s="36" t="str">
         <f>IF(LEN(データ設定用!Q11)&gt;0,データ設定用!Q11,"")</f>
         <v/>
       </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="38" t="str">
+      <c r="G17" s="36"/>
+      <c r="H17" s="37" t="str">
         <f>IF(LEN(データ設定用!S11)&gt;0,CONCATENATE(データ設定用!S11,CHAR(10),データ設定用!$Z$3),"")</f>
         <v/>
       </c>
-      <c r="I17" s="39" t="str">
+      <c r="I17" s="38" t="str">
         <f>IF(LEN(D17)&gt;0,データ設定用!$R$3,"")</f>
         <v/>
       </c>
@@ -2742,10 +2746,10 @@
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11" ht="27" customHeight="1">
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="47"/>
+      <c r="H19" s="46"/>
       <c r="I19" s="21" t="s">
         <v>21</v>
       </c>
